--- a/pgrad-back-cam.xlsx
+++ b/pgrad-back-cam.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="train" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="train1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="train2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="train3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,166 +581,4 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Visulization Method</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Observation Module</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EX</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>HE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Binary</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Complementary</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Visulization Method</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Observation Module</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EX</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>HE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Binary</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Complementary</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/pgrad-back-cam.xlsx
+++ b/pgrad-back-cam.xlsx
@@ -9,6 +9,29 @@
   <sheets>
     <sheet name="train" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="train1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="train2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="train3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="train4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="train5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="train6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="train7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="train8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="train9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="train10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="train11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="train12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="train13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="train14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="train15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="train16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="train17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="train18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="train19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="train20" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="train21" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="train22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="train23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="train24" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,6 +525,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -581,4 +1414,1057 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/pgrad-back-cam.xlsx
+++ b/pgrad-back-cam.xlsx
@@ -32,6 +32,101 @@
     <sheet name="train22" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="train23" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="train24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="train25" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="train26" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="train27" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="train28" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="train29" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="train30" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="train31" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="train32" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="train33" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="train34" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="train35" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="train36" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="train37" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="train38" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="train39" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="train40" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="train41" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="train42" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="train43" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="train44" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="train45" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="train46" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="train47" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="train48" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="train49" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="train50" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="train51" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="train52" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="train53" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="train54" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="train55" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="train56" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="train57" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="train58" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="train59" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="train60" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="train61" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="train62" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="train63" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="train64" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="train65" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="train66" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="train67" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="train68" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet name="train69" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet name="train70" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet name="train71" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet name="train72" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet name="train73" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet name="train74" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet name="train75" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet name="train76" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet name="train77" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet name="train78" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet name="train79" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet name="train80" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet name="train81" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet name="train82" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet name="train83" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet name="train84" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet name="train85" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet name="train86" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet name="train87" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet name="train88" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet name="train89" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet name="train90" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet name="train91" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet name="train92" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet name="train93" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet name="train94" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet name="train95" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet name="train96" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet name="train97" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet name="train98" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet name="train99" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet name="train100" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet name="train101" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet name="train102" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet name="train103" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet name="train104" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet name="train105" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet name="train106" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet name="train107" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet name="train108" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet name="train109" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet name="train110" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet name="train111" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet name="train112" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet name="train113" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet name="train114" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet name="train115" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet name="train116" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet name="train117" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet name="train118" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet name="train119" sheetId="120" state="visible" r:id="rId120"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,6 +701,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -687,6 +1592,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -768,6 +2483,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1902,6 +3698,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1983,6 +4103,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2064,6 +4994,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2145,6 +5885,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2226,6 +6776,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2307,6 +7667,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2388,6 +8558,816 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2467,4 +9447,814 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>